--- a/0100_Research/0120_Prototypes/0122_LiDarLitev4/TestProtocol_LIDARLitev4.xlsx
+++ b/0100_Research/0120_Prototypes/0122_LiDarLitev4/TestProtocol_LIDARLitev4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e675ddd269f32ab/Documents/3e/PGA/git/LoRaSnow/0100_Research/0120_Prototypes/0122_LiDarLitev4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="268" documentId="11_AD4D9D64A577C15A4A5418AA809858665BDEDD8C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E93EBF37-BCA5-4DFC-8AC3-9E66D984CB4E}"/>
+  <xr:revisionPtr revIDLastSave="279" documentId="11_AD4D9D64A577C15A4A5418AA809858665BDEDD8C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BF6F406-160C-4683-B045-BBA0850491ED}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6045" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tests Result " sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="53">
   <si>
     <t>Sensor under test</t>
   </si>
@@ -182,6 +182,18 @@
   </si>
   <si>
     <t>After a quick test on Arduino, a programm was developped on a STM32F746G-DISCO board in order to use a more powerful processor. The sensor outputs distance measurments without any problem.</t>
+  </si>
+  <si>
+    <t>The error characteristic was done on a scale from 20cm to 600cm. Turned out the sensor can't properly measure anything after 300cm. Between 0cm and 300cm, we can expect an error between 1cm and 5cm. We now need to know if this error is constant in temperature and between different sets or not.</t>
+  </si>
+  <si>
+    <t>Further measurement showed that the sensor has a typical error of +-2cm.</t>
+  </si>
+  <si>
+    <t>The test was done in a temperature-controlled environment with temperature from -15°C to 40°C. Results showed that the sensor is almost not disturbed by the temperature and stay in its +-2cm error from the real distance.</t>
+  </si>
+  <si>
+    <t>The sensor pass the test and can be reliably used at various temperatures.</t>
   </si>
 </sst>
 </file>
@@ -986,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="13.5" x14ac:dyDescent="0.45"/>
@@ -1018,7 +1030,7 @@
       </c>
       <c r="C2" s="14">
         <f>COUNTIF(C3:C986,"Success")/COUNTA(C3:C986)</f>
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.45">
@@ -1114,20 +1126,24 @@
       </c>
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" ht="61.5" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="C15" s="9"/>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="11"/>
+      <c r="B16" s="18" t="s">
+        <v>50</v>
+      </c>
       <c r="C16" s="12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1167,20 +1183,20 @@
       </c>
       <c r="C21" s="9"/>
     </row>
-    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="8"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="9"/>
     </row>
-    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="11"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1220,20 +1236,20 @@
       </c>
       <c r="C28" s="9"/>
     </row>
-    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="8"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="9"/>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="11"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1273,20 +1289,24 @@
       </c>
       <c r="C35" s="9"/>
     </row>
-    <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" ht="46.15" x14ac:dyDescent="0.45">
       <c r="A36" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="8"/>
+      <c r="B36" s="17" t="s">
+        <v>51</v>
+      </c>
       <c r="C36" s="9"/>
     </row>
-    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="11"/>
+      <c r="B37" s="18" t="s">
+        <v>52</v>
+      </c>
       <c r="C37" s="12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1326,18 +1346,18 @@
       </c>
       <c r="C42" s="9"/>
     </row>
-    <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A43" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="8"/>
+      <c r="B43" s="17"/>
       <c r="C43" s="9"/>
     </row>
-    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="11"/>
+      <c r="B44" s="18"/>
       <c r="C44" s="12" t="s">
         <v>12</v>
       </c>
@@ -1379,18 +1399,18 @@
       </c>
       <c r="C49" s="9"/>
     </row>
-    <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A50" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="8"/>
+      <c r="B50" s="17"/>
       <c r="C50" s="9"/>
     </row>
-    <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="11"/>
+      <c r="B51" s="18"/>
       <c r="C51" s="12" t="s">
         <v>12</v>
       </c>
@@ -1432,18 +1452,18 @@
       </c>
       <c r="C56" s="9"/>
     </row>
-    <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A57" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="17"/>
       <c r="C57" s="9"/>
     </row>
-    <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A58" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="11"/>
+      <c r="B58" s="18"/>
       <c r="C58" s="12" t="s">
         <v>12</v>
       </c>

--- a/0100_Research/0120_Prototypes/0122_LiDarLitev4/TestProtocol_LIDARLitev4.xlsx
+++ b/0100_Research/0120_Prototypes/0122_LiDarLitev4/TestProtocol_LIDARLitev4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e675ddd269f32ab/Documents/3e/PGA/git/LoRaSnow/0100_Research/0120_Prototypes/0122_LiDarLitev4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="279" documentId="11_AD4D9D64A577C15A4A5418AA809858665BDEDD8C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BF6F406-160C-4683-B045-BBA0850491ED}"/>
+  <xr:revisionPtr revIDLastSave="285" documentId="11_AD4D9D64A577C15A4A5418AA809858665BDEDD8C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8537E7C-9589-492C-BEC9-CDD6D3A486AD}"/>
   <bookViews>
-    <workbookView xWindow="6045" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tests Result " sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="57">
   <si>
     <t>Sensor under test</t>
   </si>
@@ -194,6 +194,18 @@
   </si>
   <si>
     <t>The sensor pass the test and can be reliably used at various temperatures.</t>
+  </si>
+  <si>
+    <t>The "Maximum" method is used to measure a distance to the ground.</t>
+  </si>
+  <si>
+    <t>The system is mostly insensible to noise.</t>
+  </si>
+  <si>
+    <t>Tests showed that the sensor has a more or less +- 2cm error from the real distance. Apart from that, the sensor measures a right offset measurement, as long as the material on which the measure is taken is not too porous.</t>
+  </si>
+  <si>
+    <t>The sensor measures an offset.</t>
   </si>
 </sst>
 </file>
@@ -998,7 +1010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -1030,7 +1042,7 @@
       </c>
       <c r="C2" s="14">
         <f>COUNTIF(C3:C986,"Success")/COUNTA(C3:C986)</f>
-        <v>0.375</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.45">
@@ -1187,16 +1199,20 @@
       <c r="A22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="17"/>
+      <c r="B22" s="17" t="s">
+        <v>53</v>
+      </c>
       <c r="C22" s="9"/>
     </row>
     <row r="23" spans="1:3" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="18"/>
+      <c r="B23" s="18" t="s">
+        <v>54</v>
+      </c>
       <c r="C23" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1236,20 +1252,24 @@
       </c>
       <c r="C28" s="9"/>
     </row>
-    <row r="29" spans="1:3" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" ht="46.15" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="17"/>
+      <c r="B29" s="17" t="s">
+        <v>55</v>
+      </c>
       <c r="C29" s="9"/>
     </row>
     <row r="30" spans="1:3" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="18"/>
+      <c r="B30" s="18" t="s">
+        <v>56</v>
+      </c>
       <c r="C30" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.45"/>

--- a/0100_Research/0120_Prototypes/0122_LiDarLitev4/TestProtocol_LIDARLitev4.xlsx
+++ b/0100_Research/0120_Prototypes/0122_LiDarLitev4/TestProtocol_LIDARLitev4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e675ddd269f32ab/Documents/3e/PGA/git/LoRaSnow/0100_Research/0120_Prototypes/0122_LiDarLitev4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="285" documentId="11_AD4D9D64A577C15A4A5418AA809858665BDEDD8C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8537E7C-9589-492C-BEC9-CDD6D3A486AD}"/>
+  <xr:revisionPtr revIDLastSave="288" documentId="11_AD4D9D64A577C15A4A5418AA809858665BDEDD8C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78EDC414-6415-4964-8BF5-6C7A128BD82E}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tests Result " sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="59">
   <si>
     <t>Sensor under test</t>
   </si>
@@ -206,6 +206,12 @@
   </si>
   <si>
     <t>The sensor measures an offset.</t>
+  </si>
+  <si>
+    <t>Tests were conducted at night during a medium snowfall. Measures were taken during more than 1 hour every 30 seconds, with at everytime an offset measurement.</t>
+  </si>
+  <si>
+    <t>It turned out that the LiDAR measures a right offset even when starting from 0cm</t>
   </si>
 </sst>
 </file>
@@ -1010,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="13.5" x14ac:dyDescent="0.45"/>
@@ -1042,7 +1048,7 @@
       </c>
       <c r="C2" s="14">
         <f>COUNTIF(C3:C986,"Success")/COUNTA(C3:C986)</f>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.45">
@@ -1472,20 +1478,24 @@
       </c>
       <c r="C56" s="9"/>
     </row>
-    <row r="57" spans="1:3" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A57" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B57" s="17"/>
+      <c r="B57" s="17" t="s">
+        <v>57</v>
+      </c>
       <c r="C57" s="9"/>
     </row>
     <row r="58" spans="1:3" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A58" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="18"/>
+      <c r="B58" s="18" t="s">
+        <v>58</v>
+      </c>
       <c r="C58" s="12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/0100_Research/0120_Prototypes/0122_LiDarLitev4/TestProtocol_LIDARLitev4.xlsx
+++ b/0100_Research/0120_Prototypes/0122_LiDarLitev4/TestProtocol_LIDARLitev4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e675ddd269f32ab/Documents/3e/PGA/git/LoRaSnow/0100_Research/0120_Prototypes/0122_LiDarLitev4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="288" documentId="11_AD4D9D64A577C15A4A5418AA809858665BDEDD8C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78EDC414-6415-4964-8BF5-6C7A128BD82E}"/>
+  <xr:revisionPtr revIDLastSave="294" documentId="11_AD4D9D64A577C15A4A5418AA809858665BDEDD8C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{374D10C6-2D71-4CE4-A9BA-2E1A4E587DC4}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="62">
   <si>
     <t>Sensor under test</t>
   </si>
@@ -212,6 +212,15 @@
   </si>
   <si>
     <t>It turned out that the LiDAR measures a right offset even when starting from 0cm</t>
+  </si>
+  <si>
+    <t>The sensor can't measure any distance.</t>
+  </si>
+  <si>
+    <t>The sensor doesn't work in a medium infrared environment.</t>
+  </si>
+  <si>
+    <t>The sensor doesn't work in a high infrared environment.</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1026,7 @@
   <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="13.5" x14ac:dyDescent="0.45"/>
@@ -1376,16 +1385,20 @@
       <c r="A43" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="17"/>
+      <c r="B43" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="C43" s="9"/>
     </row>
     <row r="44" spans="1:3" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="18"/>
+      <c r="B44" s="18" t="s">
+        <v>60</v>
+      </c>
       <c r="C44" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1429,16 +1442,20 @@
       <c r="A50" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="17"/>
+      <c r="B50" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="C50" s="9"/>
     </row>
     <row r="51" spans="1:3" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="18"/>
+      <c r="B51" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="C51" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.45"/>
